--- a/Testdata/TC_29.xlsx
+++ b/Testdata/TC_29.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>GR0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d1OMptElV75llkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ23GEUTbrO+U7VqVPnVhX07s3MN65IxGgYHFTsmlUxSOCGHg0uDioxP6/ajyrvOqhz4xL/GEd4RjiADZAK2P4NoweVKefzfdO8vr6uXW/VwujCrFuWbT7p90bulMxwlQaM48AllVTKe7tUxUEtb9YnHHuYYyV5UOmOurUWoW4baH0c4AsS1ZoxowFhrBNwyilhQjIimJNWu/8dtTGnXntUs5G5Qs+QzZj6nsIVkIqucbAsGdMZceqWvVu1dqtb9tja2d/Z27fs2u723vuJYApEPcz4iERX1JWEEcezuRS3drdsa2dnz4LV1oJgrswADhr43pBcUUa8FvF9Vsoipj7Ahsth1+WMaSEzJ6snergKjyM8n44p90k5NYb9pjELtC7ZJA46DCPigv0epNIRuR5E2qzjeQ+44ymN+KKNF6XnOmEkGsyFkcqJOqgdBrzhk4ifzOGsiQeuAAyHRzFB5j3MTKhNmQvfNIiJ55xjn+WFCkx0GkaXbI5dcgRxbIo5rgM/xB44HKeMUzdbdIWBjqNwDjPC4s3Q9w5hVg1ew0hn7gZgYrFsMwwvM+3WMZE8VXm+cKYzzBP4Ch2NpuH1IPAXo3jC3IhOiNduJui1PCQCUku3YsbDGWiRkZCi5SgL+AcBuExGbeLSGfaPfTAic7ZglgIBNWIenlPeCv14FrBEpyUqOoUdjclNusN0jAZwuIEwehh0gwSvzLyWVRQYhtfpmqsMaYQcucHc5LhXGcvgNtCS41vlyBMRuzykPtSH/FnkqEWvGE0J4WtdQnGQSIWHouI4zYVYE5kZBYFngncDFZKpZVUtG37GlrUvf2DllI06gZfg7BVcwkRH8WwwgQi+kntybOAtkRDswm/6OLgE6inl06NGov0aDlJ7vhe/ykMQq3MfLyQ5tUuehrqB68ceUSmgG5xLpxS6qWO8l41WSD2IagfhYDFezCETM7rP4eOgArV5n/EIqn/FccM44NFC5ApkaujbZFg8CeQC2N9Y5jwi34+h6VgcxoHbCr3NV/OUdU4CyjfXMIwjlQA3F5HWE7kwZm0isopM8xvLu2X2xKJS8FlAZmFA3c2tDUYW2nsP2AhLompjCaLia2O8D5VcFToR6xuLRdAxQmkrtUyDsdCl0ll1eHg5efOekGmTcxz70K1xKKoXabZdJqMGu1zG5EnoJPKTnOeIXphBM+x6s5oL7YJo+GpuOBMEE3rQ0xEy83jR87ikE1z0cHARQ1eR5pVleppxRUUcRzhgYjtpE7GUfNeDUJKnVHPjqOQ1iKUjqOQVAheZSzg0JrN5GGG/D4ahh9rtdIcEzUcf86keQTXziZsY2cxEU6miZonib4PJsqS2IQJep8klogSJvai2O8NkNCR22Yew9FvYp5NIZdWkeK/jwYFl7WCSf8XmSraGyRnA1Qvq7bfJQvTj2UDTpcvaCUM5sEikzmi4vVvfsbbq0MuIMZI7HhLsGx0IZk6MbnBFGJ+B2L4xJIx68EWxv2+8RyaEQhGUJtJlqLR0Xg4dJnleqtIAfYuUIgA6jAsKZWQVmHIyAeeM4Mhf5IBqq73QBdzdj/99+5vnr158dvfR0zdf/PC///jVq3/+7PbZj+Dj7q9/u/34l2qbCozGeOITqdC4ubtrbW2Dn6UkJIxrymbYi10uaWdnsgdOx0hf5eSg1em2HveaMp+kxERclRRT3BIXYZwNR2oTciF5pGbiCQrijJP8pMcFbq5EOeLWdkWK6Dz/PkFli9cvP3v98s/3SmuDZb2Wvbe3U7XrG7Ritr2CS1uxXqEGCPB21dqp1us58BIGDVUBSO3U9Ry4Xu9Z9S1xv05piSOvAy2z9ExjfGEuySlSS7VHqQvkxwlTOv4YQiRlq1DIDbSLfvGTN395WkBp62pKcRZQTrYxYjEzGcipj4ZjYzQ4GbY6xrgzEn6S8XI4NfnXgPXqaTwVnCoIYux/y4DiDsXMqMAdqGKE5wbB7tRYQCTm4rDgbOuoaqEHTrms5eMojOfqRHICGXUNMs0mayXW5BrJk/ZcSToZaw1c6Xr798/XCeiNtLOGNn3xyNNQgaNIOb6O2k//9erLD1+9eHH3/Oe3X/6gMINeJ30IAD+HaMoPU7eHlKfrzRIFnY6kMS+t7+bqiyaKi9RxSAPOHPuRvEPpEQJRW8wmf6PuDEqenFjaC+hLFPQeZp0brgPbOUJmkQB6zjFU2zC7baYElcMzu/7nt7+7+/Xnd588f/Phn24/+uPtx5+8fvn7N8/+oKLu7unzu58+01l+uRBIXcQdVjWBhnwRcQ0RjYao3cZXH/zCCEJuQMthxDIjffXBp7nJhKKyOclmhpYuVaSowgo0LyzkjJwqqQ4FuVRENQAtUcK2UoQuYuGcutki71fFVCLuJOMb3XE1ZsQIoZv6JuykCM6EN5XTIqqkHr9j1e265iptxBYmmOVM/9gPJ9BkJAz55LAEKUh9vUCGles97g2ajV4GUUoMIo9Ewg3VB0paSlFSuiwZJa6WowAXGj839sUr0QpslZXOnEtjpn5uOW94Iv051rqnigICteIoUg1RoF/vR/EcmuHkUe5+vnyozPW/R6pXzXfE2bjbLvJhnONCISyyBUHyZWrSLJWmuky87Kh29kiYJhsCr/C4CebQD/Sq07qCvjIyRd7pRFEYrU0+GSeB9aGThoxiZhZPMfJMVdftZWeVEJKEl36om5/eYdgmPuHlXq/NTLofXj1YFs6+rGiXDXxPG7Pc1SM1SzZB/glfOMr/+4KvnK0RRdBYiSe/0k/uycV1CPfdktqorUhBcQOE1fWb+CGNGH8iMoH+UpSzlHKmOtQnjv7DzRM1PnPqjxQBAGZ+drOgZhK6XP0hJfR7dEZLXgutJL6Lk4At53PVwnXLeYooLUfkBhrM3AyQFCffg7Kh3lHKzKYcFnJpKi/eLhm9mPKyir0zwcQjE6vqTki9uu1Zu9U9Qraqtg3/Y7det6wd8fKpJ4fMQcl1yUXM5MCyP3A6/wNTHNZUGR0AAA==</t>
+          <t>Eh8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqb2Qsi4Yb8CbHKKUKIhUbeWlWO4OpamWs+zOrCS+pUCCFGmKoiicIr2iTykK1DXaBEjtXv5LYMnuU/9Cz1z2RlKxVjUEeOfc5syZM+d8M0TvXM1C4wLHjET0Yc3esGoGpn4UEHr6sJbwad1+UHvHRb0rH4eHXuzNMAdhA7Qo271i5GHtjPP5rmleXl5uXDY2ovjUdCzLNp/sD0b+GZ55dUIZ96iPa5lW8Hatmos6wWwfcy/wuKc0H9b6o/5GBxO/C7R9j3qnON5oJ4xQzFiPcsIJZkIzxh7Hne7+99TCXGfjwYaNzBV6LtlOSBgouZKkoms5mBaPyQy7juVYdWu77jTHtr3bhL/mxtbm5nupYiaIBh7jIxxfEF8SRtybzaW6te00bbtpN5vIXCsEtvIAuGgYBkf4gjAcdHAYskoRMfUGtnwOq64WTAuZBV1t6P4uPIq9+dmY8BBXVd+LYuxDoO419wG+HMY6fuP5ALjjMxLzRddbVLZ1zHA8nItoVFN1UTeivBXimB/PYVNxAHsODJfHCUbmLcxcqUuYD9+EJjhwp17IikolJnocxeds7vn4AA6sKWxc0jDyAsgsThgnfj7pCgMdxtEcLMLk7SgM9sCqFl7DyCz3KYRYTNuOovPcu3VMJHNAZgPs6czjqfgKHY3OosshDRejZML8mExw0G2n0mt5SJw8rd1JGI9m4EVOQopWoCzgH5y0ZTLqYp/MvPAwhCAytwFWSgTUSng0JbwThcmMstSnJSp6DCsa46tshdkYDWFzqQh6RPs0lVdhXssqKxxFl9mcqwwZhAK5xfx0u1cZy8JdoKXbt8qROyJWuUdCaATFvShQy1kxOsOYr00JxUGi5u2J1uK2F2JOZOYUBJkJ2Q1UqJoWFF0b/saWtSv/YOaMjXo0yOVsp94oyqVMdJDMhhM4wRdyTa4NvCUSglWE7dCj50B9TPjZQSv1fg0HqTXfKr/KQ3BW56G3kOQsLkUa6lM/TAKsSkCfTmVSCt/UNt7KRiukAZxqF3l0MV7MoeQyssvh42ENmvAu4zG0+ZrrRwnl8ULUCmRq0bfpsGRC5QReeGedaYx/mAC6WOwl1O9Ewd1nC1R0jinhd/cwSmJVAO+uIqMnamHCulhUFVnm76zvV1kTiyuJzyieRZT4d482BFl4H9xjISw9VXfWwOp83Vk+hE6uGp0463dWiwEaQmurNE2LscgnMln18QgK+uYtR6aLp14SAizj0FRPs2q7TEYtdr4sUySh4zhMa54rQC8D1OsHsw0f4IJAdht+NBMEE8Dm4xEyi/IC8/i4R08HHj1NAFVkdWWZnlVc0RHHsUeZWE4GIpaK73ohlNYpBW5cVbyGiUwEVbwi4CJzSQ6N8WwexV64D4EhezrtNEIC8LHv8TM9gm4WYj8NspmrZlplz1LH3yYm25JahjjwukwuEaWQWIvC17lMTkNilftwLMOOF5JJrKpq2rzX8WDDcjiY1l+xuIrQMN0DuGNBv/0uXgjgnQ80XaasnTJUAotC6o6OmtvOptVwAMuIMZIrPsJeaPTgMHNs9OkFZnwGarvGEWYkgC/ihbvGu3iCCTRBGSLdhiprF/XQXlrnpSst8LdMKQsAwjgl0EZWBTNOruCeYC8OFwVBtdRB5IPczY//ff2b569efH7z8dM3X37w33/86tU/f3b97EP4uPnr364/+aVaphJGY28SYunQuL29bTXgIpaTkAiuKcFwkPhc0k5OJAbOxkjf2eSg0+t3Hg3asp5kxFRdtRRTXAcXUZIPR2oRciK5pWaaCUrEHaf1SY9L3EKLcsX17AKXpYv82xRVLF6//Pz1yz/fqq0DlmMte2dnU0Cst0Mx216Ry6DYoNQDhHCzbm3WHacgvCSDjlQDyOLUD9yGbe1YTsOys1oeZIm8TmiZpS2NvVNzSU+ROgoeZSlQHKdMmfhjOCIZWx2FwkCn6Jc/efOXpyUpHV1NKVsB5ySMEZOZ6UCaPjgaG6Ph8VGnZ4x7I5EnOa8gp4x/g7CePTtPpaSiNPHC7xjQ3KGZGTW4A9WMaGpgzz8zFnASC+ewlGzrqGqie5pc9vJRHCVztSMFhZy6RjKrJms11tQayZPxXCk6OWuNuPL1+u9frFPQC+nmgNY92m8bM5rlpaShEkeRCnx9aj/716uvPnr14sXN859ff/WjkgU9T/YQAHkOp6k4zNIeSp7uN0sU9Hgkg3lufb/QXzRRXKQOI0I5c+0H8g6lRwhUbWFN/o/6M2h50rCMF9CXKOhdj/WuuD7Y7gEyywTwc+5Bt43y22ZGUDU8j+t/fvu7m19/cfPp8zcf/en64z9ef/Lp65e/f/PsD+rU3Tx9fvPTZ7rKLzcC6Yu4wyoQaMgXEd8Qp9EQvdv4+v1fGDTiBkAOI5EV6ev3PysYE45KcJJbBkiXOVJ2YUW0qCz0jIIrmQ8lvUxFAYCOaGGNTEI3sWhO/HyS9+rClDh3kvGt/rieMGxEgKa+DSspC+fKd9XTKqqlHm5Zju1orvJGLGHisULoH4XRBEBGypBPDksiJa1vVshl5XyPBsN2a5CLKCeGcYBjkYbqA/VZCirT9CpQgAtgz09C8TK0IrbKQulXoXSZ+oll2gpEyXMtS75hlHtiSQJ1kjhWIIjqp/lRMgcAnD7E3c6Xj5MFzHug8GkRBefjfrfMh3GBC82vzBYEyZflSLNUaeoz8ZqjIOyBCE0+BF7pQRPCoV/fFbq6ACwZm6LW9OI4itcWnJyTiu0DeoYqYuYRz2RMMaVC2kG+VykhLXLZh7rt6RVGXRxiXvlpOtXejy7urQt7X1W1z4ZhoINZ7bqRhSU3UHyfF4lS1ZlWHANsEg96lR/UB4Se96ut3t3Z2XYmjZ1tf9Kwm1uOt4WbjtNoNDa3JjDeAuAojYrbpzAhbi7i7lZtEgCLZfX8nn0EN++K1lSApaK4i0Kk5IHUhT0boz0SM/5ElCj9pSgnGeVEQecnwj/1IccnrvNAEUDALE5mlrxO6wtXP+VE4YDMSMX7qpUWobIRSIP5XGHLqhsKPe8AXwHyLViAaj35AfQz9cBTxZo6VVDkM/3U1iiZVDZnpsqHwBeJdT/tXgC47P7a8ocREv4fDkjkdV8TfcrI6Rmvuq/Ozk4DP8BO3Zn6fr0Jgzp040k98KY7tmVNG8GmI160tXHoDgRfVpxE9BTC4F5RXc9c+mXb/R/7Jl5gEh8AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -524,7 +524,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -687,4 +687,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>27</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FC81714-2BBD-4400-9BCC-9C35BA7940C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_29.xlsx
+++ b/Testdata/TC_29.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Eh8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqb2Qsi4Yb8CbHKKUKIhUbeWlWO4OpamWs+zOrCS+pUCCFGmKoiicIr2iTykK1DXaBEjtXv5LYMnuU/9Cz1z2RlKxVjUEeOfc5syZM+d8M0TvXM1C4wLHjET0Yc3esGoGpn4UEHr6sJbwad1+UHvHRb0rH4eHXuzNMAdhA7Qo271i5GHtjPP5rmleXl5uXDY2ovjUdCzLNp/sD0b+GZ55dUIZ96iPa5lW8Hatmos6wWwfcy/wuKc0H9b6o/5GBxO/C7R9j3qnON5oJ4xQzFiPcsIJZkIzxh7Hne7+99TCXGfjwYaNzBV6LtlOSBgouZKkoms5mBaPyQy7juVYdWu77jTHtr3bhL/mxtbm5nupYiaIBh7jIxxfEF8SRtybzaW6te00bbtpN5vIXCsEtvIAuGgYBkf4gjAcdHAYskoRMfUGtnwOq64WTAuZBV1t6P4uPIq9+dmY8BBXVd+LYuxDoO419wG+HMY6fuP5ALjjMxLzRddbVLZ1zHA8nItoVFN1UTeivBXimB/PYVNxAHsODJfHCUbmLcxcqUuYD9+EJjhwp17IikolJnocxeds7vn4AA6sKWxc0jDyAsgsThgnfj7pCgMdxtEcLMLk7SgM9sCqFl7DyCz3KYRYTNuOovPcu3VMJHNAZgPs6czjqfgKHY3OosshDRejZML8mExw0G2n0mt5SJw8rd1JGI9m4EVOQopWoCzgH5y0ZTLqYp/MvPAwhCAytwFWSgTUSng0JbwThcmMstSnJSp6DCsa46tshdkYDWFzqQh6RPs0lVdhXssqKxxFl9mcqwwZhAK5xfx0u1cZy8JdoKXbt8qROyJWuUdCaATFvShQy1kxOsOYr00JxUGi5u2J1uK2F2JOZOYUBJkJ2Q1UqJoWFF0b/saWtSv/YOaMjXo0yOVsp94oyqVMdJDMhhM4wRdyTa4NvCUSglWE7dCj50B9TPjZQSv1fg0HqTXfKr/KQ3BW56G3kOQsLkUa6lM/TAKsSkCfTmVSCt/UNt7KRiukAZxqF3l0MV7MoeQyssvh42ENmvAu4zG0+ZrrRwnl8ULUCmRq0bfpsGRC5QReeGedaYx/mAC6WOwl1O9Ewd1nC1R0jinhd/cwSmJVAO+uIqMnamHCulhUFVnm76zvV1kTiyuJzyieRZT4d482BFl4H9xjISw9VXfWwOp83Vk+hE6uGp0463dWiwEaQmurNE2LscgnMln18QgK+uYtR6aLp14SAizj0FRPs2q7TEYtdr4sUySh4zhMa54rQC8D1OsHsw0f4IJAdht+NBMEE8Dm4xEyi/IC8/i4R08HHj1NAFVkdWWZnlVc0RHHsUeZWE4GIpaK73ohlNYpBW5cVbyGiUwEVbwi4CJzSQ6N8WwexV64D4EhezrtNEIC8LHv8TM9gm4WYj8NspmrZlplz1LH3yYm25JahjjwukwuEaWQWIvC17lMTkNilftwLMOOF5JJrKpq2rzX8WDDcjiY1l+xuIrQMN0DuGNBv/0uXgjgnQ80XaasnTJUAotC6o6OmtvOptVwAMuIMZIrPsJeaPTgMHNs9OkFZnwGarvGEWYkgC/ihbvGu3iCCTRBGSLdhiprF/XQXlrnpSst8LdMKQsAwjgl0EZWBTNOruCeYC8OFwVBtdRB5IPczY//ff2b569efH7z8dM3X37w33/86tU/f3b97EP4uPnr364/+aVaphJGY28SYunQuL29bTXgIpaTkAiuKcFwkPhc0k5OJAbOxkjf2eSg0+t3Hg3asp5kxFRdtRRTXAcXUZIPR2oRciK5pWaaCUrEHaf1SY9L3EKLcsX17AKXpYv82xRVLF6//Pz1yz/fqq0DlmMte2dnU0Cst0Mx216Ry6DYoNQDhHCzbm3WHacgvCSDjlQDyOLUD9yGbe1YTsOys1oeZIm8TmiZpS2NvVNzSU+ROgoeZSlQHKdMmfhjOCIZWx2FwkCn6Jc/efOXpyUpHV1NKVsB5ySMEZOZ6UCaPjgaG6Ph8VGnZ4x7I5EnOa8gp4x/g7CePTtPpaSiNPHC7xjQ3KGZGTW4A9WMaGpgzz8zFnASC+ewlGzrqGqie5pc9vJRHCVztSMFhZy6RjKrJms11tQayZPxXCk6OWuNuPL1+u9frFPQC+nmgNY92m8bM5rlpaShEkeRCnx9aj/716uvPnr14sXN859ff/WjkgU9T/YQAHkOp6k4zNIeSp7uN0sU9Hgkg3lufb/QXzRRXKQOI0I5c+0H8g6lRwhUbWFN/o/6M2h50rCMF9CXKOhdj/WuuD7Y7gEyywTwc+5Bt43y22ZGUDU8j+t/fvu7m19/cfPp8zcf/en64z9ef/Lp65e/f/PsD+rU3Tx9fvPTZ7rKLzcC6Yu4wyoQaMgXEd8Qp9EQvdv4+v1fGDTiBkAOI5EV6ev3PysYE45KcJJbBkiXOVJ2YUW0qCz0jIIrmQ8lvUxFAYCOaGGNTEI3sWhO/HyS9+rClDh3kvGt/rieMGxEgKa+DSspC+fKd9XTKqqlHm5Zju1orvJGLGHisULoH4XRBEBGypBPDksiJa1vVshl5XyPBsN2a5CLKCeGcYBjkYbqA/VZCirT9CpQgAtgz09C8TK0IrbKQulXoXSZ+oll2gpEyXMtS75hlHtiSQJ1kjhWIIjqp/lRMgcAnD7E3c6Xj5MFzHug8GkRBefjfrfMh3GBC82vzBYEyZflSLNUaeoz8ZqjIOyBCE0+BF7pQRPCoV/fFbq6ACwZm6LW9OI4itcWnJyTiu0DeoYqYuYRz2RMMaVC2kG+VykhLXLZh7rt6RVGXRxiXvlpOtXejy7urQt7X1W1z4ZhoINZ7bqRhSU3UHyfF4lS1ZlWHANsEg96lR/UB4Se96ut3t3Z2XYmjZ1tf9Kwm1uOt4WbjtNoNDa3JjDeAuAojYrbpzAhbi7i7lZtEgCLZfX8nn0EN++K1lSApaK4i0Kk5IHUhT0boz0SM/5ElCj9pSgnGeVEQecnwj/1IccnrvNAEUDALE5mlrxO6wtXP+VE4YDMSMX7qpUWobIRSIP5XGHLqhsKPe8AXwHyLViAaj35AfQz9cBTxZo6VVDkM/3U1iiZVDZnpsqHwBeJdT/tXgC47P7a8ocREv4fDkjkdV8TfcrI6Rmvuq/Ozk4DP8BO3Zn6fr0Jgzp040k98KY7tmVNG8GmI160tXHoDgRfVpxE9BTC4F5RXc9c+mXb/R/7Jl5gEh8AAA==</t>
+          <t>GR0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d1OMptElV75llkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ23GEUTbrO+U7VqVPnVhX07s3MN65IxGgYHFTsmlUxSOCGHg0uDioxP6/ajyrvOqhz4xL/GEd4RjiADZAK2P4NoweVKefzfdO8vr6uXW/VwujCrFuWbT7p90bulMxwlQaM48AllVTKe7tUxUEtb9YnHHuYYyV5UOmOurUWoW4baH0c4AsS1ZoxowFhrBNwyilhQjIimJNWu/8dtTGnXntUs5G5Qs+QzZj6nsIVkIqucbAsGdMZceqWvVu1dqtb9tja2d/Z27fs2u723vuJYApEPcz4iERX1JWEEcezuRS3drdsa2dnz4LV1oJgrswADhr43pBcUUa8FvF9Vsoipj7Ahsth1+WMaSEzJ6snergKjyM8n44p90k5NYb9pjELtC7ZJA46DCPigv0epNIRuR5E2qzjeQ+44ymN+KKNF6XnOmEkGsyFkcqJOqgdBrzhk4ifzOGsiQeuAAyHRzFB5j3MTKhNmQvfNIiJ55xjn+WFCkx0GkaXbI5dcgRxbIo5rgM/xB44HKeMUzdbdIWBjqNwDjPC4s3Q9w5hVg1ew0hn7gZgYrFsMwwvM+3WMZE8VXm+cKYzzBP4Ch2NpuH1IPAXo3jC3IhOiNduJui1PCQCUku3YsbDGWiRkZCi5SgL+AcBuExGbeLSGfaPfTAic7ZglgIBNWIenlPeCv14FrBEpyUqOoUdjclNusN0jAZwuIEwehh0gwSvzLyWVRQYhtfpmqsMaYQcucHc5LhXGcvgNtCS41vlyBMRuzykPtSH/FnkqEWvGE0J4WtdQnGQSIWHouI4zYVYE5kZBYFngncDFZKpZVUtG37GlrUvf2DllI06gZfg7BVcwkRH8WwwgQi+kntybOAtkRDswm/6OLgE6inl06NGov0aDlJ7vhe/ykMQq3MfLyQ5tUuehrqB68ceUSmgG5xLpxS6qWO8l41WSD2IagfhYDFezCETM7rP4eOgArV5n/EIqn/FccM44NFC5ApkaujbZFg8CeQC2N9Y5jwi34+h6VgcxoHbCr3NV/OUdU4CyjfXMIwjlQA3F5HWE7kwZm0isopM8xvLu2X2xKJS8FlAZmFA3c2tDUYW2nsP2AhLompjCaLia2O8D5VcFToR6xuLRdAxQmkrtUyDsdCl0ll1eHg5efOekGmTcxz70K1xKKoXabZdJqMGu1zG5EnoJPKTnOeIXphBM+x6s5oL7YJo+GpuOBMEE3rQ0xEy83jR87ikE1z0cHARQ1eR5pVleppxRUUcRzhgYjtpE7GUfNeDUJKnVHPjqOQ1iKUjqOQVAheZSzg0JrN5GGG/D4ahh9rtdIcEzUcf86keQTXziZsY2cxEU6miZonib4PJsqS2IQJep8klogSJvai2O8NkNCR22Yew9FvYp5NIZdWkeK/jwYFl7WCSf8XmSraGyRnA1Qvq7bfJQvTj2UDTpcvaCUM5sEikzmi4vVvfsbbq0MuIMZI7HhLsGx0IZk6MbnBFGJ+B2L4xJIx68EWxv2+8RyaEQhGUJtJlqLR0Xg4dJnleqtIAfYuUIgA6jAsKZWQVmHIyAeeM4Mhf5IBqq73QBdzdj/99+5vnr158dvfR0zdf/PC///jVq3/+7PbZj+Dj7q9/u/34l2qbCozGeOITqdC4ubtrbW2Dn6UkJIxrymbYi10uaWdnsgdOx0hf5eSg1em2HveaMp+kxERclRRT3BIXYZwNR2oTciF5pGbiCQrijJP8pMcFbq5EOeLWdkWK6Dz/PkFli9cvP3v98s/3SmuDZb2Wvbe3U7XrG7Ritr2CS1uxXqEGCPB21dqp1us58BIGDVUBSO3U9Ry4Xu9Z9S1xv05piSOvAy2z9ExjfGEuySlSS7VHqQvkxwlTOv4YQiRlq1DIDbSLfvGTN395WkBp62pKcRZQTrYxYjEzGcipj4ZjYzQ4GbY6xrgzEn6S8XI4NfnXgPXqaTwVnCoIYux/y4DiDsXMqMAdqGKE5wbB7tRYQCTm4rDgbOuoaqEHTrms5eMojOfqRHICGXUNMs0mayXW5BrJk/ZcSToZaw1c6Xr798/XCeiNtLOGNn3xyNNQgaNIOb6O2k//9erLD1+9eHH3/Oe3X/6gMINeJ30IAD+HaMoPU7eHlKfrzRIFnY6kMS+t7+bqiyaKi9RxSAPOHPuRvEPpEQJRW8wmf6PuDEqenFjaC+hLFPQeZp0brgPbOUJmkQB6zjFU2zC7baYElcMzu/7nt7+7+/Xnd588f/Phn24/+uPtx5+8fvn7N8/+oKLu7unzu58+01l+uRBIXcQdVjWBhnwRcQ0RjYao3cZXH/zCCEJuQMthxDIjffXBp7nJhKKyOclmhpYuVaSowgo0LyzkjJwqqQ4FuVRENQAtUcK2UoQuYuGcutki71fFVCLuJOMb3XE1ZsQIoZv6JuykCM6EN5XTIqqkHr9j1e265iptxBYmmOVM/9gPJ9BkJAz55LAEKUh9vUCGles97g2ajV4GUUoMIo9Ewg3VB0paSlFSuiwZJa6WowAXGj839sUr0QpslZXOnEtjpn5uOW94Iv051rqnigICteIoUg1RoF/vR/EcmuHkUe5+vnyozPW/R6pXzXfE2bjbLvJhnONCISyyBUHyZWrSLJWmuky87Kh29kiYJhsCr/C4CebQD/Sq07qCvjIyRd7pRFEYrU0+GSeB9aGThoxiZhZPMfJMVdftZWeVEJKEl36om5/eYdgmPuHlXq/NTLofXj1YFs6+rGiXDXxPG7Pc1SM1SzZB/glfOMr/+4KvnK0RRdBYiSe/0k/uycV1CPfdktqorUhBcQOE1fWb+CGNGH8iMoH+UpSzlHKmOtQnjv7DzRM1PnPqjxQBAGZ+drOgZhK6XP0hJfR7dEZLXgutJL6Lk4At53PVwnXLeYooLUfkBhrM3AyQFCffg7Kh3lHKzKYcFnJpKi/eLhm9mPKyir0zwcQjE6vqTki9uu1Zu9U9Qraqtg3/Y7det6wd8fKpJ4fMQcl1yUXM5MCyP3A6/wNTHNZUGR0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -524,7 +524,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -687,37 +687,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>27</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FC81714-2BBD-4400-9BCC-9C35BA7940C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>